--- a/config.xlsx
+++ b/config.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\conectDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D965D9-A98F-4E8E-97F4-E082F772CF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D9801-0EB5-4C55-A5A8-9D36C75774CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3285" yWindow="2310" windowWidth="10470" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
-    <sheet name="plantillaSap" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginSap" sheetId="2" r:id="rId2"/>
+    <sheet name="cuentas" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cuentas!$A$1:$J$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="105">
   <si>
     <t>BCP</t>
   </si>
@@ -45,18 +49,9 @@
     <t>BISA</t>
   </si>
   <si>
-    <t>MERCANTIL</t>
-  </si>
-  <si>
     <t>UNION</t>
   </si>
   <si>
-    <t>ECONOMICO</t>
-  </si>
-  <si>
-    <t>FASSIL</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -174,14 +169,200 @@
     <t>NombreComercial</t>
   </si>
   <si>
-    <t>BANCO UNION S.A</t>
+    <t>SOCIEDAD</t>
+  </si>
+  <si>
+    <t>ENTIDAD FINANCIERA</t>
+  </si>
+  <si>
+    <t>NRO.CUENTA</t>
+  </si>
+  <si>
+    <t>Sociedad (Campo de SAP)</t>
+  </si>
+  <si>
+    <t>Banco propio (Campo de SAP)</t>
+  </si>
+  <si>
+    <t>MONEDA</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>PERIODICIDAD DE CARGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSERVACIONES </t>
+  </si>
+  <si>
+    <t>Grupo Venado</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>GV01</t>
+  </si>
+  <si>
+    <t>BUN03</t>
+  </si>
+  <si>
+    <t>Bolivianos</t>
+  </si>
+  <si>
+    <t>Patricia Segurondo</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
+  <si>
+    <t>BCP01</t>
+  </si>
+  <si>
+    <t>Mercantil</t>
+  </si>
+  <si>
+    <t>BMS01</t>
+  </si>
+  <si>
+    <t>BMS02</t>
+  </si>
+  <si>
+    <t>BMS03</t>
+  </si>
+  <si>
+    <t>BMS04</t>
+  </si>
+  <si>
+    <t>BMS11</t>
+  </si>
+  <si>
+    <t>Dólares</t>
+  </si>
+  <si>
+    <t>Bisa</t>
+  </si>
+  <si>
+    <t>BIS01</t>
+  </si>
+  <si>
+    <t>Vemassa</t>
+  </si>
+  <si>
+    <t>VEM1</t>
+  </si>
+  <si>
+    <t>BIS02</t>
+  </si>
+  <si>
+    <t>Mavid Chirinos</t>
+  </si>
+  <si>
+    <t>BIS03</t>
+  </si>
+  <si>
+    <t>BIS04</t>
+  </si>
+  <si>
+    <t>BIS05</t>
+  </si>
+  <si>
+    <t>BIS06</t>
+  </si>
+  <si>
+    <t>BIS07</t>
+  </si>
+  <si>
+    <t>BIS08</t>
+  </si>
+  <si>
+    <t>BIS09</t>
+  </si>
+  <si>
+    <t>BIS10</t>
+  </si>
+  <si>
+    <t>BIS11</t>
+  </si>
+  <si>
+    <t>BIS12</t>
+  </si>
+  <si>
+    <t>BUN02</t>
+  </si>
+  <si>
+    <t>Emilene Ortiz</t>
+  </si>
+  <si>
+    <t>Fassil</t>
+  </si>
+  <si>
+    <t>FAS02</t>
+  </si>
+  <si>
+    <t>Prodem</t>
+  </si>
+  <si>
+    <t>BPR02</t>
+  </si>
+  <si>
+    <t>BCP04</t>
+  </si>
+  <si>
+    <t>Económico</t>
+  </si>
+  <si>
+    <t>BEC01</t>
+  </si>
+  <si>
+    <t>BMS05</t>
+  </si>
+  <si>
+    <t>BMS06</t>
+  </si>
+  <si>
+    <t>BMS08</t>
+  </si>
+  <si>
+    <t>BMS12</t>
+  </si>
+  <si>
+    <t>AUN NO HABILITADA EN SISTEMA</t>
+  </si>
+  <si>
+    <t>CORRELATIVO</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>AMBIENTE</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>botpruebas**</t>
+  </si>
+  <si>
+    <t>QAS - EHP8 on HANA</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>VALOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,19 +376,84 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -216,10 +462,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,58 +769,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
+      <c r="P1" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -574,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -586,36 +841,36 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -624,10 +879,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -636,36 +891,36 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -680,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -695,27 +950,27 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -730,42 +985,42 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -774,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -786,36 +1041,36 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -824,10 +1079,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -836,28 +1091,28 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -868,12 +1123,1199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7">
+        <v>120161539</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2015026265385</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4010501329</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4010066211</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4010599686</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4010374232</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4010395865</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100070014</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7015089120389</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100072017</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100070022</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7">
+        <v>100070031</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="7">
+        <v>100070049</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7">
+        <v>100070057</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100070065</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100070073</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100070081</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7">
+        <v>100070090</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7">
+        <v>100070103</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7">
+        <v>100070111</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8">
+        <v>100070049</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7">
+        <v>100070065</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100070090</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7">
+        <v>100070103</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="7">
+        <v>100070111</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2120271437</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="7">
+        <v>620210</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="7">
+        <v>61121267099</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7015054675359</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2041320635</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4010132476</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4010542984</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4010678183</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4010640108</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="7">
+        <v>7934540012</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="7">
+        <v>7934542015</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="C2:C37" xr:uid="{70345916-44DB-4C25-A750-ECDBBC8F479B}">
+      <formula1>$V$1:$V$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="B23:B37 B2:B21" xr:uid="{F1E573BA-48E9-4125-BD9F-743D1570CEC6}">
+      <formula1>$T$1:$T$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!S1:S3" sqref="G23:G37 G2:G21" xr:uid="{75F127BD-1FBD-4688-945D-992B20069FF2}">
+      <formula1>$X$1:$X$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!U1:U5" sqref="I2:I21 I23:I37" xr:uid="{D42B7124-97FF-4AF1-B684-256BBEFE1469}">
+      <formula1>$Z$1:$Z$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!W1:W3" sqref="H2:H37" xr:uid="{7DD362FA-1206-4C84-8DED-9033E5CB67AA}">
+      <formula1>$AB$1:$AB$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D9801-0EB5-4C55-A5A8-9D36C75774CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAA5F09-275D-4148-BAD7-3E63B999BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="cuentas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cuentas!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cuentas!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="110">
   <si>
     <t>BCP</t>
   </si>
@@ -356,6 +356,21 @@
   </si>
   <si>
     <t>VALOR</t>
+  </si>
+  <si>
+    <t>rutaSap</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>ABR MONEDA</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1181,14 @@
         <v>102</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1174,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1208,7 @@
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
@@ -1208,16 +1231,19 @@
         <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1240,14 +1266,17 @@
         <v>55</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1270,14 +1299,17 @@
         <v>55</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1300,14 +1332,17 @@
         <v>55</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1330,14 +1365,17 @@
         <v>55</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1360,14 +1398,17 @@
         <v>55</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1390,14 +1431,17 @@
         <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1420,14 +1464,17 @@
         <v>65</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1450,14 +1497,17 @@
         <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1480,14 +1530,17 @@
         <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1510,14 +1563,17 @@
         <v>65</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1540,14 +1596,17 @@
         <v>55</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1570,14 +1629,17 @@
         <v>55</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1600,14 +1662,17 @@
         <v>55</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1630,14 +1695,17 @@
         <v>55</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1660,14 +1728,17 @@
         <v>55</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1690,14 +1761,17 @@
         <v>55</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1720,14 +1794,17 @@
         <v>55</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1750,14 +1827,17 @@
         <v>55</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1780,14 +1860,17 @@
         <v>55</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1810,14 +1893,17 @@
         <v>55</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1840,14 +1926,17 @@
         <v>55</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1870,14 +1959,17 @@
         <v>55</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1900,14 +1992,17 @@
         <v>55</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1930,14 +2025,17 @@
         <v>55</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1960,14 +2058,17 @@
         <v>55</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1990,14 +2091,17 @@
         <v>55</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2020,14 +2124,17 @@
         <v>55</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2050,14 +2157,17 @@
         <v>55</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2080,14 +2190,17 @@
         <v>55</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2110,14 +2223,17 @@
         <v>55</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2140,14 +2256,17 @@
         <v>55</v>
       </c>
       <c r="H32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2170,14 +2289,17 @@
         <v>55</v>
       </c>
       <c r="H33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2200,14 +2322,17 @@
         <v>55</v>
       </c>
       <c r="H34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2230,14 +2355,17 @@
         <v>65</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2260,14 +2388,17 @@
         <v>55</v>
       </c>
       <c r="H36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2288,32 +2419,35 @@
         <v>65</v>
       </c>
       <c r="H37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="J37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
-  <dataValidations count="5">
+  <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="C2:C37" xr:uid="{70345916-44DB-4C25-A750-ECDBBC8F479B}">
-      <formula1>$V$1:$V$13</formula1>
+      <formula1>$W$1:$W$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="B23:B37 B2:B21" xr:uid="{F1E573BA-48E9-4125-BD9F-743D1570CEC6}">
-      <formula1>$T$1:$T$2</formula1>
+      <formula1>$U$1:$U$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!S1:S3" sqref="G23:G37 G2:G21" xr:uid="{75F127BD-1FBD-4688-945D-992B20069FF2}">
-      <formula1>$X$1:$X$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!S1:S3" sqref="G2:G21 G23:G37" xr:uid="{75F127BD-1FBD-4688-945D-992B20069FF2}">
+      <formula1>$Y$1:$Y$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!U1:U5" sqref="I2:I21 I23:I37" xr:uid="{D42B7124-97FF-4AF1-B684-256BBEFE1469}">
-      <formula1>$Z$1:$Z$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!U1:U5" sqref="J2:J21 J23:J37" xr:uid="{D42B7124-97FF-4AF1-B684-256BBEFE1469}">
+      <formula1>$AA$1:$AA$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!W1:W3" sqref="H2:H37" xr:uid="{7DD362FA-1206-4C84-8DED-9033E5CB67AA}">
-      <formula1>$AB$1:$AB$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!W1:W3" sqref="I2:I37" xr:uid="{7DD362FA-1206-4C84-8DED-9033E5CB67AA}">
+      <formula1>$AC$1:$AC$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAA5F09-275D-4148-BAD7-3E63B999BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44806C31-0174-46D0-AA96-9E84932B80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>%d/%m/%Y</t>
   </si>
   <si>
-    <t xml:space="preserve">MERCANTIL </t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>MERCANTIL</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +781,7 @@
     <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -827,12 +828,12 @@
         <v>34</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -877,7 +878,7 @@
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -932,7 +933,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -968,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>17</v>
@@ -977,12 +978,12 @@
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1018,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>19</v>
@@ -1027,12 +1028,12 @@
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1065,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
         <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>40</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>20</v>
@@ -1077,12 +1078,12 @@
         <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1127,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1151,42 +1152,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1199,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,37 +1211,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1248,31 +1249,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="7">
         <v>120161539</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -1281,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -1290,22 +1291,22 @@
         <v>2015026265385</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1314,31 +1315,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
         <v>4010501329</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1347,31 +1348,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
         <v>4010066211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -1380,31 +1381,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7">
         <v>4010599686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -1413,31 +1414,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
         <v>4010374232</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1446,31 +1447,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7">
         <v>4010395865</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -1479,31 +1480,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7">
         <v>100070014</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -1512,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>0</v>
@@ -1521,22 +1522,22 @@
         <v>7015089120389</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1545,31 +1546,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
         <v>100072017</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1578,31 +1579,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7">
         <v>100070022</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="6"/>
     </row>
@@ -1611,31 +1612,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
         <v>100070031</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1644,31 +1645,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
         <v>100070049</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="6"/>
     </row>
@@ -1677,31 +1678,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
         <v>100070057</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -1710,31 +1711,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7">
         <v>100070065</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="6"/>
     </row>
@@ -1743,31 +1744,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
         <v>100070073</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1776,31 +1777,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7">
         <v>100070081</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="6"/>
     </row>
@@ -1809,31 +1810,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
         <v>100070090</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -1842,31 +1843,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7">
         <v>100070103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -1875,31 +1876,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7">
         <v>100070111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -1908,31 +1909,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8">
         <v>100070049</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -1941,31 +1942,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="7">
         <v>100070065</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -1974,31 +1975,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="7">
         <v>100070090</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -2007,31 +2008,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7">
         <v>100070103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -2040,31 +2041,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
         <v>100070111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -2073,31 +2074,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="7">
         <v>2120271437</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="J27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -2106,31 +2107,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7">
         <v>620210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28" s="6"/>
     </row>
@@ -2139,31 +2140,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="7">
         <v>61121267099</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -2172,7 +2173,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
@@ -2181,22 +2182,22 @@
         <v>7015054675359</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -2205,31 +2206,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="7">
         <v>2041320635</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -2238,31 +2239,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7">
         <v>4010132476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2271,31 +2272,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="7">
         <v>4010542984</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="6"/>
     </row>
@@ -2304,31 +2305,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="7">
         <v>4010678183</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -2337,31 +2338,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="7">
         <v>4010640108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="6"/>
     </row>
@@ -2370,31 +2371,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="7">
         <v>7934540012</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="6"/>
     </row>
@@ -2403,37 +2404,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="7">
         <v>7934542015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="C2:C37" xr:uid="{70345916-44DB-4C25-A750-ECDBBC8F479B}">
       <formula1>$W$1:$W$13</formula1>
     </dataValidation>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44806C31-0174-46D0-AA96-9E84932B80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA846F-2012-4ADB-9169-C86C81178A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="111">
   <si>
     <t>BCP</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>MERCANTIL</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -770,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,31 +1089,31 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>4</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
       </c>
       <c r="K7" t="s">
         <v>3</v>
@@ -1129,6 +1132,38 @@
       </c>
       <c r="P7" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1177,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D33" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44806C31-0174-46D0-AA96-9E84932B80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{44806C31-0174-46D0-AA96-9E84932B80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65710BA-FE8C-4DD7-90D4-5CA9AA2F6AD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>rutaSap</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
     <t>ABR MONEDA</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>MERCANTIL</t>
+  </si>
+  <si>
+    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>17</v>
@@ -1141,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1187,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
         <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>47</v>
@@ -1267,7 +1267,7 @@
         <v>54</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>55</v>
@@ -1300,7 +1300,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>55</v>
@@ -1333,7 +1333,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>55</v>
@@ -1366,7 +1366,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>55</v>
@@ -1399,7 +1399,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>55</v>
@@ -1432,7 +1432,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>55</v>
@@ -1465,7 +1465,7 @@
         <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>55</v>
@@ -1498,7 +1498,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>55</v>
@@ -1531,7 +1531,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>55</v>
@@ -1564,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>70</v>
@@ -1597,7 +1597,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>70</v>
@@ -1630,7 +1630,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>70</v>
@@ -1663,7 +1663,7 @@
         <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>70</v>
@@ -1696,7 +1696,7 @@
         <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>70</v>
@@ -1729,7 +1729,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>70</v>
@@ -1762,7 +1762,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>70</v>
@@ -1795,7 +1795,7 @@
         <v>54</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>70</v>
@@ -1828,7 +1828,7 @@
         <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>70</v>
@@ -1861,7 +1861,7 @@
         <v>54</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>70</v>
@@ -1894,7 +1894,7 @@
         <v>54</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>70</v>
@@ -1927,7 +1927,7 @@
         <v>54</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>70</v>
@@ -1960,7 +1960,7 @@
         <v>54</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>70</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>70</v>
@@ -2026,7 +2026,7 @@
         <v>54</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>70</v>
@@ -2059,7 +2059,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>70</v>
@@ -2092,7 +2092,7 @@
         <v>54</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>82</v>
@@ -2125,7 +2125,7 @@
         <v>54</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>82</v>
@@ -2158,7 +2158,7 @@
         <v>54</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>82</v>
@@ -2191,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>82</v>
@@ -2224,7 +2224,7 @@
         <v>54</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>82</v>
@@ -2257,7 +2257,7 @@
         <v>54</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>82</v>
@@ -2290,7 +2290,7 @@
         <v>54</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>82</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>82</v>
@@ -2356,7 +2356,7 @@
         <v>64</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>82</v>
@@ -2389,7 +2389,7 @@
         <v>54</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>82</v>
@@ -2420,7 +2420,7 @@
         <v>64</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>82</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\sapHunter\SAPHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive - UNIVERSIDAD NACIONAL DE INGENIERIA\Venado\Cris\SapHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA846F-2012-4ADB-9169-C86C81178A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4D520-5A73-487F-936E-0BA9E99DBB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>rutaSap</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
     <t>ABR MONEDA</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>17</v>
@@ -1089,13 +1089,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -1104,16 +1104,16 @@
         <v>3</v>
       </c>
       <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>5</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
       </c>
       <c r="K7" t="s">
         <v>3</v>
@@ -1136,31 +1136,31 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>4</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
       </c>
       <c r="K8" t="s">
         <v>3</v>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1267,7 @@
         <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>47</v>
@@ -1302,7 +1302,7 @@
         <v>54</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>55</v>
@@ -1335,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>55</v>
@@ -1368,7 +1368,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>55</v>
@@ -1401,7 +1401,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>55</v>
@@ -1434,7 +1434,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>55</v>
@@ -1467,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>55</v>
@@ -1500,7 +1500,7 @@
         <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>55</v>
@@ -1533,7 +1533,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>55</v>
@@ -1566,7 +1566,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>55</v>
@@ -1599,7 +1599,7 @@
         <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>70</v>
@@ -1632,7 +1632,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>70</v>
@@ -1665,7 +1665,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>70</v>
@@ -1698,7 +1698,7 @@
         <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>70</v>
@@ -1731,7 +1731,7 @@
         <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>70</v>
@@ -1764,7 +1764,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>70</v>
@@ -1797,7 +1797,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>70</v>
@@ -1830,7 +1830,7 @@
         <v>54</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>70</v>
@@ -1863,7 +1863,7 @@
         <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>70</v>
@@ -1896,7 +1896,7 @@
         <v>54</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>70</v>
@@ -1929,7 +1929,7 @@
         <v>54</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>70</v>
@@ -1962,7 +1962,7 @@
         <v>54</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>70</v>
@@ -1995,7 +1995,7 @@
         <v>54</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>70</v>
@@ -2028,7 +2028,7 @@
         <v>54</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>70</v>
@@ -2061,7 +2061,7 @@
         <v>54</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>70</v>
@@ -2094,7 +2094,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>70</v>
@@ -2127,7 +2127,7 @@
         <v>54</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>82</v>
@@ -2160,7 +2160,7 @@
         <v>54</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>82</v>
@@ -2193,7 +2193,7 @@
         <v>54</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>82</v>
@@ -2226,7 +2226,7 @@
         <v>54</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>82</v>
@@ -2259,7 +2259,7 @@
         <v>54</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>82</v>
@@ -2292,7 +2292,7 @@
         <v>54</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>82</v>
@@ -2325,7 +2325,7 @@
         <v>54</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>82</v>
@@ -2358,7 +2358,7 @@
         <v>54</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>82</v>
@@ -2391,7 +2391,7 @@
         <v>64</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>82</v>
@@ -2424,7 +2424,7 @@
         <v>54</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>82</v>
@@ -2455,7 +2455,7 @@
         <v>64</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>82</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive - UNIVERSIDAD NACIONAL DE INGENIERIA\Venado\Cris\SapHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\RobotDaniel\VENADO\SapHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4D520-5A73-487F-936E-0BA9E99DBB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cuentas!$A$1:$K$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="113">
   <si>
     <t>BCP</t>
   </si>
@@ -373,7 +370,13 @@
     <t>A2</t>
   </si>
   <si>
-    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
+    <t>ModoValidacion</t>
+  </si>
+  <si>
+    <t>Doble</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
@@ -775,19 +778,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
@@ -834,7 +837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -884,7 +887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>58</v>
       </c>
@@ -984,7 +987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>88</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -1174,18 +1177,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>102</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1217,12 +1220,20 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1239,12 +1250,12 @@
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
@@ -1279,7 +1290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1312,7 +1323,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1345,7 +1356,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1378,7 +1389,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1411,7 +1422,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1444,7 +1455,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1477,7 +1488,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1510,7 +1521,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1543,7 +1554,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1576,7 +1587,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1609,7 +1620,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1642,7 +1653,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1675,7 +1686,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1708,7 +1719,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1741,7 +1752,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1774,7 +1785,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1807,7 +1818,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1840,7 +1851,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1873,7 +1884,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1906,7 +1917,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1939,7 +1950,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1972,7 +1983,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2005,7 +2016,7 @@
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2038,7 +2049,7 @@
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2071,7 +2082,7 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2104,7 +2115,7 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2137,7 +2148,7 @@
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2170,7 +2181,7 @@
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2203,7 +2214,7 @@
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2236,7 +2247,7 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2269,7 +2280,7 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2302,7 +2313,7 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2335,7 +2346,7 @@
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2368,7 +2379,7 @@
       </c>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2401,7 +2412,7 @@
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2434,7 +2445,7 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\RobotDaniel\VENADO\SapHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC8B74A-8500-4A54-8627-029CC222AC38}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="116">
   <si>
     <t>BCP</t>
   </si>
@@ -373,17 +373,26 @@
     <t>ModoValidacion</t>
   </si>
   <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>fechaExtracto</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
     <t>Doble</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+    <t>Ninguna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +423,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,6 +512,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,15 +800,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
@@ -837,7 +855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -887,7 +905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -937,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>58</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>88</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -1177,18 +1195,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.77734375" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>102</v>
       </c>
@@ -1196,47 +1214,67 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F2" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F3" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F4" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{694602D6-F8AF-4958-A87C-CDA5EC5C67E2}">
+      <formula1>$F$2:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1250,12 +1288,12 @@
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
@@ -1290,7 +1328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1323,7 +1361,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1356,7 +1394,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1389,7 +1427,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1422,7 +1460,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1455,7 +1493,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1488,7 +1526,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1521,7 +1559,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1554,7 +1592,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1587,7 +1625,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1620,7 +1658,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1653,7 +1691,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1686,7 +1724,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1719,7 +1757,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1752,7 +1790,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1785,7 +1823,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1818,7 +1856,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1851,7 +1889,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1884,7 +1922,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1917,7 +1955,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1950,7 +1988,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1983,7 +2021,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2016,7 +2054,7 @@
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2049,7 +2087,7 @@
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2082,7 +2120,7 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2115,7 +2153,7 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2148,7 +2186,7 @@
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2181,7 +2219,7 @@
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2214,7 +2252,7 @@
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2247,7 +2285,7 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2280,7 +2318,7 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2313,7 +2351,7 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2346,7 +2384,7 @@
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2379,7 +2417,7 @@
       </c>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2412,7 +2450,7 @@
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2445,7 +2483,7 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC8B74A-8500-4A54-8627-029CC222AC38}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3312224-3CDF-4F89-840A-975F2B5C2E29}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="120">
   <si>
     <t>BCP</t>
   </si>
@@ -386,6 +386,18 @@
   </si>
   <si>
     <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Ejecucion</t>
+  </si>
+  <si>
+    <t>PLANTILLAS</t>
+  </si>
+  <si>
+    <t>CARGA_SAP</t>
+  </si>
+  <si>
+    <t>COMPLETO</t>
   </si>
 </sst>
 </file>
@@ -512,8 +524,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,18 +806,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1110,31 +1123,31 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>4</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
       </c>
       <c r="K7" t="s">
         <v>3</v>
@@ -1184,6 +1197,38 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1195,15 +1240,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,6 +1259,15 @@
       <c r="B1" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1221,7 +1276,7 @@
       <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1232,7 +1287,7 @@
       <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1243,7 +1298,7 @@
       <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1260,19 +1315,34 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{694602D6-F8AF-4958-A87C-CDA5EC5C67E2}">
       <formula1>$F$2:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{EAD20FE9-DF26-4894-8B3D-8695BC53B722}">
+      <formula1>$D$1:$F$1</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{3CCE5B96-7247-4CA2-A071-36B35F3E2ADA}">
+      <formula1>36526</formula1>
+      <formula2>47818</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\RobotDaniel\VENADO\SapHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipe-my.sharepoint.com/personal/20131022b_uni_pe/Documents/Venado/Cris/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{827857C4-2A54-4C03-8D40-6A7D2211AB41}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
     <t>Doble</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+    <t>D:\Program Files (x86)\ERPSAP\SAPgui\saplogon.exe</t>
   </si>
 </sst>
 </file>
@@ -782,15 +782,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
@@ -837,7 +837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -887,7 +887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>58</v>
       </c>
@@ -987,7 +987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>88</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -1180,15 +1180,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.77734375" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>102</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1250,12 +1250,12 @@
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>95</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\SapHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{D91EB278-5646-432A-8067-B9B70D65792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3312224-3CDF-4F89-840A-975F2B5C2E29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8506B-3F55-4D94-8B9D-F96D6C8113E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cuentas!$A$1:$K$37</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1315,7 +1318,7 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,7 +1358,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,19 +2593,19 @@
   <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="C2:C37" xr:uid="{70345916-44DB-4C25-A750-ECDBBC8F479B}">
-      <formula1>$W$1:$W$13</formula1>
+      <formula1>$V$1:$V$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="B23:B37 B2:B21" xr:uid="{F1E573BA-48E9-4125-BD9F-743D1570CEC6}">
-      <formula1>$U$1:$U$2</formula1>
+      <formula1>$T$1:$T$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!S1:S3" sqref="G2:G21 G23:G37" xr:uid="{75F127BD-1FBD-4688-945D-992B20069FF2}">
-      <formula1>$Y$1:$Y$3</formula1>
+      <formula1>$X$1:$X$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!U1:U5" sqref="J2:J21 J23:J37" xr:uid="{D42B7124-97FF-4AF1-B684-256BBEFE1469}">
-      <formula1>$AA$1:$AA$5</formula1>
+      <formula1>$Z$1:$Z$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!W1:W3" sqref="I2:I37" xr:uid="{7DD362FA-1206-4C84-8DED-9033E5CB67AA}">
-      <formula1>$AC$1:$AC$3</formula1>
+      <formula1>$AB$1:$AB$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\SapHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8506B-3F55-4D94-8B9D-F96D6C8113E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{42B8506B-3F55-4D94-8B9D-F96D6C8113E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1796AAB-DA1C-49B7-AFA1-0EB3B11DF7D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,12 +1245,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
@@ -1318,7 +1319,7 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\Bot1\SapHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{42B8506B-3F55-4D94-8B9D-F96D6C8113E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1796AAB-DA1C-49B7-AFA1-0EB3B11DF7D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E6131-6B5B-40AD-8F22-F5441CD87C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -340,15 +340,6 @@
     <t>AMBIENTE</t>
   </si>
   <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>botpruebas**</t>
-  </si>
-  <si>
-    <t>QAS - EHP8 on HANA</t>
-  </si>
-  <si>
     <t>VARIABLE</t>
   </si>
   <si>
@@ -401,6 +392,15 @@
   </si>
   <si>
     <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>miturralde</t>
+  </si>
+  <si>
+    <t>Robot2022**</t>
+  </si>
+  <si>
+    <t>PRD SAP HANA</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -1009,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>17</v>
@@ -1126,7 +1126,7 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1245,32 +1245,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,10 +1278,10 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,10 +1289,10 @@
         <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,40 +1300,40 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
         <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1390,7 @@
         <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>47</v>
@@ -1425,7 +1425,7 @@
         <v>54</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>55</v>
@@ -1458,7 +1458,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>55</v>
@@ -1491,7 +1491,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>55</v>
@@ -1524,7 +1524,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>55</v>
@@ -1557,7 +1557,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>55</v>
@@ -1590,7 +1590,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>55</v>
@@ -1623,7 +1623,7 @@
         <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>55</v>
@@ -1656,7 +1656,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>55</v>
@@ -1689,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>55</v>
@@ -1722,7 +1722,7 @@
         <v>64</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>70</v>
@@ -1755,7 +1755,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>70</v>
@@ -1788,7 +1788,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>70</v>
@@ -1821,7 +1821,7 @@
         <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>70</v>
@@ -1854,7 +1854,7 @@
         <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>70</v>
@@ -1887,7 +1887,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>70</v>
@@ -1920,7 +1920,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>70</v>
@@ -1953,7 +1953,7 @@
         <v>54</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>70</v>
@@ -1986,7 +1986,7 @@
         <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>70</v>
@@ -2019,7 +2019,7 @@
         <v>54</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>70</v>
@@ -2052,7 +2052,7 @@
         <v>54</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>70</v>
@@ -2085,7 +2085,7 @@
         <v>54</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>70</v>
@@ -2118,7 +2118,7 @@
         <v>54</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>70</v>
@@ -2151,7 +2151,7 @@
         <v>54</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>70</v>
@@ -2184,7 +2184,7 @@
         <v>54</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>70</v>
@@ -2217,7 +2217,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>70</v>
@@ -2250,7 +2250,7 @@
         <v>54</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>82</v>
@@ -2283,7 +2283,7 @@
         <v>54</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>82</v>
@@ -2316,7 +2316,7 @@
         <v>54</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>82</v>
@@ -2349,7 +2349,7 @@
         <v>54</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>82</v>
@@ -2382,7 +2382,7 @@
         <v>54</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>82</v>
@@ -2415,7 +2415,7 @@
         <v>54</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>82</v>
@@ -2448,7 +2448,7 @@
         <v>54</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>82</v>
@@ -2481,7 +2481,7 @@
         <v>54</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>82</v>
@@ -2514,7 +2514,7 @@
         <v>64</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>82</v>
@@ -2547,7 +2547,7 @@
         <v>54</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>82</v>
@@ -2578,7 +2578,7 @@
         <v>64</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>82</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\Bot1\SapHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E6131-6B5B-40AD-8F22-F5441CD87C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1F1BD-3E4B-4540-8552-A606B18342C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>banco bisa.xlsx</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>10000020161539</t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>PRD SAP HANA</t>
+  </si>
+  <si>
+    <t>B17</t>
   </si>
 </sst>
 </file>
@@ -811,78 +811,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -891,16 +891,16 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>3</v>
@@ -912,13 +912,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1006,24 +1006,24 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1056,24 +1056,24 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1106,27 +1106,27 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1162,18 +1162,18 @@
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,82 +1258,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
         <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,37 +1369,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,31 +1407,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D2" s="7">
         <v>120161539</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         <v>2015026265385</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1473,31 +1473,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
         <v>4010501329</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1506,31 +1506,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7">
         <v>4010066211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -1539,31 +1539,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
         <v>4010599686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -1572,31 +1572,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
         <v>4010374232</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1605,31 +1605,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
         <v>4010395865</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -1638,31 +1638,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
         <v>100070014</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -1671,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>0</v>
@@ -1680,22 +1680,22 @@
         <v>7015089120389</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1704,31 +1704,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
         <v>100072017</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1737,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="7">
         <v>100070022</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="6"/>
     </row>
@@ -1770,31 +1770,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
         <v>100070031</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1803,31 +1803,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
         <v>100070049</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="6"/>
     </row>
@@ -1836,31 +1836,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
         <v>100070057</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -1869,31 +1869,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
         <v>100070065</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="6"/>
     </row>
@@ -1902,31 +1902,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
         <v>100070073</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1935,31 +1935,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
         <v>100070081</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18" s="6"/>
     </row>
@@ -1968,31 +1968,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7">
         <v>100070090</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -2001,31 +2001,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7">
         <v>100070103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -2034,31 +2034,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7">
         <v>100070111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -2067,31 +2067,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8">
         <v>100070049</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -2100,31 +2100,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7">
         <v>100070065</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -2133,31 +2133,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7">
         <v>100070090</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -2166,31 +2166,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7">
         <v>100070103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -2199,31 +2199,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7">
         <v>100070111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -2232,31 +2232,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="7">
         <v>2120271437</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="J27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -2265,31 +2265,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="7">
         <v>620210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="6"/>
     </row>
@@ -2298,31 +2298,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="7">
         <v>61121267099</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -2331,7 +2331,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
@@ -2340,22 +2340,22 @@
         <v>7015054675359</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -2364,31 +2364,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="7">
         <v>2041320635</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -2397,31 +2397,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="7">
         <v>4010132476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2430,31 +2430,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="7">
         <v>4010542984</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="6"/>
     </row>
@@ -2463,31 +2463,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="7">
         <v>4010678183</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -2496,31 +2496,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="7">
         <v>4010640108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35" s="6"/>
     </row>
@@ -2529,31 +2529,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="7">
         <v>7934540012</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" s="6"/>
     </row>
@@ -2562,32 +2562,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="7">
         <v>7934542015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\Bot1\SapHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1F1BD-3E4B-4540-8552-A606B18342C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD2E3F-83EB-4AFD-89CF-3B639CED8CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="114">
   <si>
     <t>BCP</t>
   </si>
@@ -64,18 +64,6 @@
     <t>B16</t>
   </si>
   <si>
-    <t>NombreArchivo</t>
-  </si>
-  <si>
-    <t>banco union.xlsx</t>
-  </si>
-  <si>
-    <t>banco bcp.xlsx</t>
-  </si>
-  <si>
-    <t>banco bisa.xlsx</t>
-  </si>
-  <si>
     <t>10000020161539</t>
   </si>
   <si>
@@ -88,15 +76,9 @@
     <t>B13</t>
   </si>
   <si>
-    <t>banco mercantill.xlsx</t>
-  </si>
-  <si>
     <t>4010066211</t>
   </si>
   <si>
-    <t>FASSIL EXTRACTOS.xlsx</t>
-  </si>
-  <si>
     <t>620210</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>ECONOMICO EXTRACTO.xlsx</t>
-  </si>
-  <si>
     <t>Extracto</t>
   </si>
   <si>
@@ -401,6 +380,9 @@
   </si>
   <si>
     <t>B17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Info. Complementaria</t>
   </si>
 </sst>
 </file>
@@ -811,13 +793,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
@@ -826,57 +807,57 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -906,19 +887,19 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -926,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -956,16 +937,16 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
@@ -973,10 +954,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1006,24 +987,24 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1056,24 +1037,24 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1106,27 +1087,27 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1155,25 +1136,25 @@
       <c r="K7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
-        <v>10</v>
+      <c r="L7">
+        <v>7</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1258,82 +1239,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1369,37 +1350,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,31 +1388,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2" s="7">
         <v>120161539</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -1440,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -1449,22 +1430,22 @@
         <v>2015026265385</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -1473,31 +1454,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
         <v>4010501329</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -1506,31 +1487,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
         <v>4010066211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -1539,31 +1520,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
         <v>4010599686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -1572,31 +1553,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
         <v>4010374232</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1605,31 +1586,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
         <v>4010395865</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -1638,31 +1619,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7">
         <v>100070014</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -1671,7 +1652,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>0</v>
@@ -1680,22 +1661,22 @@
         <v>7015089120389</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1704,31 +1685,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
         <v>100072017</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1737,31 +1718,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
         <v>100070022</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K12" s="6"/>
     </row>
@@ -1770,31 +1751,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
         <v>100070031</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -1803,31 +1784,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
         <v>100070049</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K14" s="6"/>
     </row>
@@ -1836,31 +1817,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7">
         <v>100070057</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K15" s="6"/>
     </row>
@@ -1869,31 +1850,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
         <v>100070065</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K16" s="6"/>
     </row>
@@ -1902,31 +1883,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
         <v>100070073</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1935,31 +1916,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
         <v>100070081</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K18" s="6"/>
     </row>
@@ -1968,31 +1949,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
         <v>100070090</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -2001,31 +1982,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7">
         <v>100070103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -2034,31 +2015,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
         <v>100070111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -2067,31 +2048,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D22" s="8">
         <v>100070049</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -2100,31 +2081,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7">
         <v>100070065</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -2133,31 +2114,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7">
         <v>100070090</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K24" s="6"/>
     </row>
@@ -2166,31 +2147,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7">
         <v>100070103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -2199,31 +2180,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
         <v>100070111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -2232,31 +2213,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D27" s="7">
         <v>2120271437</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -2265,31 +2246,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D28" s="7">
         <v>620210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K28" s="6"/>
     </row>
@@ -2298,31 +2279,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D29" s="7">
         <v>61121267099</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -2331,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
@@ -2340,22 +2321,22 @@
         <v>7015054675359</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -2364,31 +2345,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D31" s="7">
         <v>2041320635</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -2397,31 +2378,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D32" s="7">
         <v>4010132476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2430,31 +2411,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D33" s="7">
         <v>4010542984</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K33" s="6"/>
     </row>
@@ -2463,31 +2444,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D34" s="7">
         <v>4010678183</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -2496,31 +2477,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D35" s="7">
         <v>4010640108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K35" s="6"/>
     </row>
@@ -2529,31 +2510,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D36" s="7">
         <v>7934540012</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K36" s="6"/>
     </row>
@@ -2562,32 +2543,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D37" s="7">
         <v>7934542015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\Bot1\SapHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD2E3F-83EB-4AFD-89CF-3B639CED8CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{78AD2E3F-83EB-4AFD-89CF-3B639CED8CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4B640E-BB39-4E3E-ABAC-587AA998AAF2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">cuentas!$A$1:$K$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,103 +43,190 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="114">
   <si>
+    <t>CeldaPeriodo</t>
+  </si>
+  <si>
+    <t>MaxRowCol</t>
+  </si>
+  <si>
+    <t>NroDocumCol</t>
+  </si>
+  <si>
+    <t>CreditCol</t>
+  </si>
+  <si>
+    <t>DebitCol</t>
+  </si>
+  <si>
+    <t>ImporteCol</t>
+  </si>
+  <si>
+    <t>SaldoCol</t>
+  </si>
+  <si>
+    <t>NombreCol</t>
+  </si>
+  <si>
+    <t>DescripcionCol</t>
+  </si>
+  <si>
+    <t>CodBancario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Info. Complementaria</t>
+  </si>
+  <si>
+    <t>NombreHoja</t>
+  </si>
+  <si>
+    <t>CuentaCol</t>
+  </si>
+  <si>
+    <t>FormatoFecha</t>
+  </si>
+  <si>
+    <t>NombreComercial</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>10000020161539</t>
+  </si>
+  <si>
+    <t>%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
     <t>BCP</t>
   </si>
   <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>2015026265385</t>
+  </si>
+  <si>
+    <t>%d/%m/%Y</t>
+  </si>
+  <si>
+    <t>Mercantil</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>MERCANTIL</t>
+  </si>
+  <si>
+    <t>4010066211</t>
+  </si>
+  <si>
+    <t>Fassil</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>620210</t>
+  </si>
+  <si>
+    <t>Económico</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Extracto</t>
+  </si>
+  <si>
+    <t>2041320635</t>
+  </si>
+  <si>
+    <t>Bisa</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>BISA</t>
   </si>
   <si>
-    <t>UNION</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>A18</t>
+    <t>0100070014</t>
   </si>
   <si>
     <t>B16</t>
   </si>
   <si>
-    <t>10000020161539</t>
-  </si>
-  <si>
-    <t>2015026265385</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>4010066211</t>
-  </si>
-  <si>
-    <t>620210</t>
-  </si>
-  <si>
-    <t>2041320635</t>
-  </si>
-  <si>
-    <t>0100070014</t>
-  </si>
-  <si>
-    <t>CeldaPeriodo</t>
-  </si>
-  <si>
-    <t>NroDocumCol</t>
-  </si>
-  <si>
-    <t>CreditCol</t>
-  </si>
-  <si>
-    <t>DebitCol</t>
-  </si>
-  <si>
-    <t>ImporteCol</t>
-  </si>
-  <si>
-    <t>SaldoCol</t>
-  </si>
-  <si>
-    <t>NombreCol</t>
-  </si>
-  <si>
-    <t>DescripcionCol</t>
-  </si>
-  <si>
-    <t>CuentaCol</t>
-  </si>
-  <si>
-    <t>NombreHoja</t>
-  </si>
-  <si>
-    <t>MaxRowCol</t>
-  </si>
-  <si>
-    <t>CodBancario</t>
-  </si>
-  <si>
-    <t>FormatoFecha</t>
-  </si>
-  <si>
-    <t>%Y-%m-%d %H:%M:%S</t>
-  </si>
-  <si>
-    <t>%d/%m/%Y</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>Extracto</t>
-  </si>
-  <si>
-    <t>NombreComercial</t>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>PLANTILLAS</t>
+  </si>
+  <si>
+    <t>CARGA_SAP</t>
+  </si>
+  <si>
+    <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>miturralde</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>Robot2022**</t>
+  </si>
+  <si>
+    <t>Doble</t>
+  </si>
+  <si>
+    <t>AMBIENTE</t>
+  </si>
+  <si>
+    <t>PRD SAP HANA</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>rutaSap</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>ModoValidacion</t>
+  </si>
+  <si>
+    <t>fechaExtracto</t>
+  </si>
+  <si>
+    <t>Ejecucion</t>
+  </si>
+  <si>
+    <t>CORRELATIVO</t>
   </si>
   <si>
     <t>SOCIEDAD</t>
@@ -160,6 +247,9 @@
     <t>MONEDA</t>
   </si>
   <si>
+    <t>ABR MONEDA</t>
+  </si>
+  <si>
     <t>RESPONSABLE</t>
   </si>
   <si>
@@ -172,9 +262,6 @@
     <t>Grupo Venado</t>
   </si>
   <si>
-    <t>Union</t>
-  </si>
-  <si>
     <t>GV01</t>
   </si>
   <si>
@@ -184,6 +271,9 @@
     <t>Bolivianos</t>
   </si>
   <si>
+    <t>BOB</t>
+  </si>
+  <si>
     <t>Patricia Segurondo</t>
   </si>
   <si>
@@ -193,9 +283,6 @@
     <t>BCP01</t>
   </si>
   <si>
-    <t>Mercantil</t>
-  </si>
-  <si>
     <t>BMS01</t>
   </si>
   <si>
@@ -214,7 +301,7 @@
     <t>Dólares</t>
   </si>
   <si>
-    <t>Bisa</t>
+    <t>USD</t>
   </si>
   <si>
     <t>BIS01</t>
@@ -268,9 +355,6 @@
     <t>Emilene Ortiz</t>
   </si>
   <si>
-    <t>Fassil</t>
-  </si>
-  <si>
     <t>FAS02</t>
   </si>
   <si>
@@ -283,9 +367,6 @@
     <t>BCP04</t>
   </si>
   <si>
-    <t>Económico</t>
-  </si>
-  <si>
     <t>BEC01</t>
   </si>
   <si>
@@ -302,94 +383,13 @@
   </si>
   <si>
     <t>AUN NO HABILITADA EN SISTEMA</t>
-  </si>
-  <si>
-    <t>CORRELATIVO</t>
-  </si>
-  <si>
-    <t>CUENTA</t>
-  </si>
-  <si>
-    <t>CONTRASEÑA</t>
-  </si>
-  <si>
-    <t>AMBIENTE</t>
-  </si>
-  <si>
-    <t>VARIABLE</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>rutaSap</t>
-  </si>
-  <si>
-    <t>ABR MONEDA</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>MERCANTIL</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>ModoValidacion</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
-    <t>fechaExtracto</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Doble</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>Ejecucion</t>
-  </si>
-  <si>
-    <t>PLANTILLAS</t>
-  </si>
-  <si>
-    <t>CARGA_SAP</t>
-  </si>
-  <si>
-    <t>COMPLETO</t>
-  </si>
-  <si>
-    <t>miturralde</t>
-  </si>
-  <si>
-    <t>Robot2022**</t>
-  </si>
-  <si>
-    <t>PRD SAP HANA</t>
-  </si>
-  <si>
-    <t>B17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Info. Complementaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,120 +794,120 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -916,10 +916,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -928,36 +928,36 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -987,27 +987,27 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1022,42 +1022,42 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="11" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -1078,36 +1078,36 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="11" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1128,33 +1128,33 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1163,10 +1163,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1175,18 +1175,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1195,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1207,13 +1207,13 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1230,91 +1230,91 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1343,1232 +1343,1232 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7">
         <v>120161539</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8">
         <v>2015026265385</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
         <v>4010501329</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
         <v>4010066211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
         <v>4010599686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
         <v>4010374232</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
         <v>4010395865</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
         <v>100070014</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
         <v>7015089120389</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
         <v>100072017</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
         <v>100070022</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
         <v>100070031</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
         <v>100070049</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7">
         <v>100070057</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
         <v>100070065</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
         <v>100070073</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
         <v>100070081</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
         <v>100070090</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
         <v>100070103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7">
         <v>100070111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D22" s="8">
         <v>100070049</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7">
         <v>100070065</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
         <v>100070090</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7">
         <v>100070103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D26" s="7">
         <v>100070111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D27" s="7">
         <v>2120271437</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D28" s="7">
         <v>620210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D29" s="7">
         <v>61121267099</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D30" s="7">
         <v>7015054675359</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D31" s="7">
         <v>2041320635</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D32" s="7">
         <v>4010132476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D33" s="7">
         <v>4010542984</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D34" s="7">
         <v>4010678183</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D35" s="7">
         <v>4010640108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7">
         <v>7934540012</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7">
         <v>7934542015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\Bot1\SapHunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{78AD2E3F-83EB-4AFD-89CF-3B639CED8CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4B640E-BB39-4E3E-ABAC-587AA998AAF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8662B7-E1AF-4762-8F68-B22EDC6FF81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="109">
   <si>
     <t>CeldaPeriodo</t>
   </si>
@@ -76,9 +76,6 @@
     <t xml:space="preserve"> Info. Complementaria</t>
   </si>
   <si>
-    <t>NombreHoja</t>
-  </si>
-  <si>
     <t>CuentaCol</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>UNION</t>
-  </si>
-  <si>
     <t>10000020161539</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>A13</t>
   </si>
   <si>
-    <t>MERCANTIL</t>
-  </si>
-  <si>
     <t>4010066211</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>B20</t>
   </si>
   <si>
-    <t>Sheet</t>
-  </si>
-  <si>
     <t>620210</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>A18</t>
   </si>
   <si>
-    <t>Extracto</t>
-  </si>
-  <si>
     <t>2041320635</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>BISA</t>
-  </si>
-  <si>
     <t>0100070014</t>
   </si>
   <si>
@@ -383,13 +365,16 @@
   </si>
   <si>
     <t>AUN NO HABILITADA EN SISTEMA</t>
+  </si>
+  <si>
+    <t>CAMPO ITF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,19 +778,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -840,24 +825,24 @@
         <v>10</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -866,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -878,36 +863,36 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -916,10 +901,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -928,36 +913,36 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -972,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -987,27 +972,27 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1022,42 +1007,42 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1066,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -1078,36 +1063,36 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1116,10 +1101,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1128,33 +1113,33 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <v>7</v>
       </c>
-      <c r="M7" t="s">
-        <v>39</v>
+      <c r="M7">
+        <v>4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1163,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1175,18 +1160,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1195,10 +1180,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1207,13 +1192,13 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1226,99 +1211,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="12" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{694602D6-F8AF-4958-A87C-CDA5EC5C67E2}">
       <formula1>$F$2:$F$4</formula1>
     </dataValidation>
@@ -1337,1242 +1322,1249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7">
         <v>120161539</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="8">
         <v>2015026265385</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
         <v>4010501329</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
         <v>4010066211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7">
         <v>4010599686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
         <v>4010374232</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
         <v>4010395865</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
         <v>100070014</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
         <v>7015089120389</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
         <v>100072017</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7">
         <v>100070022</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
         <v>100070031</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
         <v>100070049</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
         <v>100070057</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
         <v>100070065</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7">
         <v>100070073</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
         <v>100070081</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
         <v>100070090</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7">
         <v>100070103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7">
         <v>100070111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D22" s="8">
         <v>100070049</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7">
         <v>100070065</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
         <v>100070090</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
         <v>100070103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
         <v>100070111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="7">
         <v>2120271437</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="7">
         <v>620210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D29" s="7">
         <v>61121267099</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7">
         <v>7015054675359</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7">
         <v>2041320635</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="7">
         <v>4010132476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="7">
         <v>4010542984</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="7">
         <v>4010678183</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="7">
         <v>4010640108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D36" s="7">
         <v>7934540012</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D37" s="7">
         <v>7934542015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
+  <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Fassil"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="C2:C37" xr:uid="{70345916-44DB-4C25-A750-ECDBBC8F479B}">
       <formula1>$V$1:$V$13</formula1>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\Bot1\SapHunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado-my.sharepoint.com/personal/felipevillarroel_grupovenado_com/Documents/Proyecto Automatización Procesos Contables y Tesoreria/Bot1/SapHunter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8662B7-E1AF-4762-8F68-B22EDC6FF81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{FA8662B7-E1AF-4762-8F68-B22EDC6FF81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F9B671-62DE-4BA5-828B-231FDAE847CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -88,286 +88,286 @@
     <t>Union</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10000020161539</t>
+  </si>
+  <si>
+    <t>%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
+    <t>BCP</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>2015026265385</t>
+  </si>
+  <si>
+    <t>%d/%m/%Y</t>
+  </si>
+  <si>
+    <t>Mercantil</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>4010066211</t>
+  </si>
+  <si>
+    <t>Fassil</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>620210</t>
+  </si>
+  <si>
+    <t>Económico</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>2041320635</t>
+  </si>
+  <si>
+    <t>Bisa</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>0100070014</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>PLANTILLAS</t>
+  </si>
+  <si>
+    <t>CARGA_SAP</t>
+  </si>
+  <si>
+    <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>miturralde</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>Robot2022**</t>
+  </si>
+  <si>
+    <t>Doble</t>
+  </si>
+  <si>
+    <t>AMBIENTE</t>
+  </si>
+  <si>
+    <t>PRD SAP HANA</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>rutaSap</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>ModoValidacion</t>
+  </si>
+  <si>
+    <t>fechaExtracto</t>
+  </si>
+  <si>
+    <t>Ejecucion</t>
+  </si>
+  <si>
+    <t>CORRELATIVO</t>
+  </si>
+  <si>
+    <t>SOCIEDAD</t>
+  </si>
+  <si>
+    <t>ENTIDAD FINANCIERA</t>
+  </si>
+  <si>
+    <t>NRO.CUENTA</t>
+  </si>
+  <si>
+    <t>Sociedad (Campo de SAP)</t>
+  </si>
+  <si>
+    <t>Banco propio (Campo de SAP)</t>
+  </si>
+  <si>
+    <t>MONEDA</t>
+  </si>
+  <si>
+    <t>ABR MONEDA</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>PERIODICIDAD DE CARGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSERVACIONES </t>
+  </si>
+  <si>
+    <t>Grupo Venado</t>
+  </si>
+  <si>
+    <t>GV01</t>
+  </si>
+  <si>
+    <t>BUN03</t>
+  </si>
+  <si>
+    <t>Bolivianos</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Patricia Segurondo</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
+  <si>
+    <t>BCP01</t>
+  </si>
+  <si>
+    <t>BMS01</t>
+  </si>
+  <si>
+    <t>BMS02</t>
+  </si>
+  <si>
+    <t>BMS03</t>
+  </si>
+  <si>
+    <t>BMS04</t>
+  </si>
+  <si>
+    <t>BMS11</t>
+  </si>
+  <si>
+    <t>Dólares</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>BIS01</t>
+  </si>
+  <si>
+    <t>Vemassa</t>
+  </si>
+  <si>
+    <t>VEM1</t>
+  </si>
+  <si>
+    <t>BIS02</t>
+  </si>
+  <si>
+    <t>Mavid Chirinos</t>
+  </si>
+  <si>
+    <t>BIS03</t>
+  </si>
+  <si>
+    <t>BIS04</t>
+  </si>
+  <si>
+    <t>BIS05</t>
+  </si>
+  <si>
+    <t>BIS06</t>
+  </si>
+  <si>
+    <t>BIS07</t>
+  </si>
+  <si>
+    <t>BIS08</t>
+  </si>
+  <si>
+    <t>BIS09</t>
+  </si>
+  <si>
+    <t>BIS10</t>
+  </si>
+  <si>
+    <t>BIS11</t>
+  </si>
+  <si>
+    <t>BIS12</t>
+  </si>
+  <si>
+    <t>BUN02</t>
+  </si>
+  <si>
+    <t>Emilene Ortiz</t>
+  </si>
+  <si>
+    <t>FAS02</t>
+  </si>
+  <si>
+    <t>Prodem</t>
+  </si>
+  <si>
+    <t>BPR02</t>
+  </si>
+  <si>
+    <t>BCP04</t>
+  </si>
+  <si>
+    <t>BEC01</t>
+  </si>
+  <si>
+    <t>BMS05</t>
+  </si>
+  <si>
+    <t>BMS06</t>
+  </si>
+  <si>
+    <t>BMS08</t>
+  </si>
+  <si>
+    <t>BMS12</t>
+  </si>
+  <si>
+    <t>AUN NO HABILITADA EN SISTEMA</t>
+  </si>
+  <si>
+    <t>CAMPO ITF</t>
+  </si>
+  <si>
     <t>A6</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>10000020161539</t>
-  </si>
-  <si>
-    <t>%Y-%m-%d %H:%M:%S</t>
-  </si>
-  <si>
-    <t>BCP</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>2015026265385</t>
-  </si>
-  <si>
-    <t>%d/%m/%Y</t>
-  </si>
-  <si>
-    <t>Mercantil</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>4010066211</t>
-  </si>
-  <si>
-    <t>Fassil</t>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>620210</t>
-  </si>
-  <si>
-    <t>Económico</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>2041320635</t>
-  </si>
-  <si>
-    <t>Bisa</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>0100070014</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>VARIABLE</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>PLANTILLAS</t>
-  </si>
-  <si>
-    <t>CARGA_SAP</t>
-  </si>
-  <si>
-    <t>COMPLETO</t>
-  </si>
-  <si>
-    <t>CUENTA</t>
-  </si>
-  <si>
-    <t>miturralde</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>CONTRASEÑA</t>
-  </si>
-  <si>
-    <t>Robot2022**</t>
-  </si>
-  <si>
-    <t>Doble</t>
-  </si>
-  <si>
-    <t>AMBIENTE</t>
-  </si>
-  <si>
-    <t>PRD SAP HANA</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>rutaSap</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
-  </si>
-  <si>
-    <t>ModoValidacion</t>
-  </si>
-  <si>
-    <t>fechaExtracto</t>
-  </si>
-  <si>
-    <t>Ejecucion</t>
-  </si>
-  <si>
-    <t>CORRELATIVO</t>
-  </si>
-  <si>
-    <t>SOCIEDAD</t>
-  </si>
-  <si>
-    <t>ENTIDAD FINANCIERA</t>
-  </si>
-  <si>
-    <t>NRO.CUENTA</t>
-  </si>
-  <si>
-    <t>Sociedad (Campo de SAP)</t>
-  </si>
-  <si>
-    <t>Banco propio (Campo de SAP)</t>
-  </si>
-  <si>
-    <t>MONEDA</t>
-  </si>
-  <si>
-    <t>ABR MONEDA</t>
-  </si>
-  <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>PERIODICIDAD DE CARGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBSERVACIONES </t>
-  </si>
-  <si>
-    <t>Grupo Venado</t>
-  </si>
-  <si>
-    <t>GV01</t>
-  </si>
-  <si>
-    <t>BUN03</t>
-  </si>
-  <si>
-    <t>Bolivianos</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>Patricia Segurondo</t>
-  </si>
-  <si>
-    <t>Diaria</t>
-  </si>
-  <si>
-    <t>BCP01</t>
-  </si>
-  <si>
-    <t>BMS01</t>
-  </si>
-  <si>
-    <t>BMS02</t>
-  </si>
-  <si>
-    <t>BMS03</t>
-  </si>
-  <si>
-    <t>BMS04</t>
-  </si>
-  <si>
-    <t>BMS11</t>
-  </si>
-  <si>
-    <t>Dólares</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>BIS01</t>
-  </si>
-  <si>
-    <t>Vemassa</t>
-  </si>
-  <si>
-    <t>VEM1</t>
-  </si>
-  <si>
-    <t>BIS02</t>
-  </si>
-  <si>
-    <t>Mavid Chirinos</t>
-  </si>
-  <si>
-    <t>BIS03</t>
-  </si>
-  <si>
-    <t>BIS04</t>
-  </si>
-  <si>
-    <t>BIS05</t>
-  </si>
-  <si>
-    <t>BIS06</t>
-  </si>
-  <si>
-    <t>BIS07</t>
-  </si>
-  <si>
-    <t>BIS08</t>
-  </si>
-  <si>
-    <t>BIS09</t>
-  </si>
-  <si>
-    <t>BIS10</t>
-  </si>
-  <si>
-    <t>BIS11</t>
-  </si>
-  <si>
-    <t>BIS12</t>
-  </si>
-  <si>
-    <t>BUN02</t>
-  </si>
-  <si>
-    <t>Emilene Ortiz</t>
-  </si>
-  <si>
-    <t>FAS02</t>
-  </si>
-  <si>
-    <t>Prodem</t>
-  </si>
-  <si>
-    <t>BPR02</t>
-  </si>
-  <si>
-    <t>BCP04</t>
-  </si>
-  <si>
-    <t>BEC01</t>
-  </si>
-  <si>
-    <t>BMS05</t>
-  </si>
-  <si>
-    <t>BMS06</t>
-  </si>
-  <si>
-    <t>BMS08</t>
-  </si>
-  <si>
-    <t>BMS12</t>
-  </si>
-  <si>
-    <t>AUN NO HABILITADA EN SISTEMA</t>
-  </si>
-  <si>
-    <t>CAMPO ITF</t>
   </si>
 </sst>
 </file>
@@ -779,15 +779,17 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -825,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>11</v>
@@ -842,19 +844,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -863,25 +865,25 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="P2" t="s">
         <v>14</v>
@@ -889,10 +891,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -901,10 +903,10 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -913,36 +915,36 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3">
         <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -957,7 +959,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>21</v>
@@ -972,27 +974,27 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4">
         <v>10</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
         <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1007,42 +1009,42 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5">
         <v>6</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1051,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -1063,36 +1065,36 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1101,10 +1103,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1113,13 +1115,13 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>7</v>
@@ -1128,18 +1130,18 @@
         <v>4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1148,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1160,18 +1162,18 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1180,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1192,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1214,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,86 +1226,86 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{694602D6-F8AF-4958-A87C-CDA5EC5C67E2}">
       <formula1>$F$2:$F$4</formula1>
     </dataValidation>
@@ -1322,11 +1324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,45 +1337,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
@@ -1383,847 +1384,847 @@
         <v>120161539</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8">
         <v>2015026265385</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
         <v>4010501329</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
         <v>4010066211</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
         <v>4010599686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
         <v>4010374232</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
         <v>4010395865</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
         <v>100070014</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
         <v>7015089120389</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
         <v>100072017</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
         <v>100070022</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
         <v>100070031</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
         <v>100070049</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
         <v>100070057</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
         <v>100070065</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
         <v>100070073</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
         <v>100070081</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
         <v>100070090</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7">
         <v>100070103</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7">
         <v>100070111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8">
         <v>100070049</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
         <v>100070065</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
         <v>100070090</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
         <v>100070103</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="7">
         <v>100070111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="7">
-        <v>2120271437</v>
+        <v>120271437</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="J27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -2232,339 +2233,333 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="7">
         <v>620210</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="7">
         <v>61121267099</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
         <v>7015054675359</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="7">
         <v>2041320635</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="7">
         <v>4010132476</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="7">
         <v>4010542984</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="7">
         <v>4010678183</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="7">
         <v>4010640108</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="I35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="7">
         <v>7934540012</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="7">
         <v>7934542015</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="I37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Fassil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K37" xr:uid="{E45A073E-2743-4135-ADF5-D2E575AFBED5}"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Haz clic e introduce un valor de intervalo 'Hoja 1'!Q1:Q15" sqref="C2:C37" xr:uid="{70345916-44DB-4C25-A750-ECDBBC8F479B}">
       <formula1>$V$1:$V$13</formula1>

--- a/config.xlsx
+++ b/config.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{FA8662B7-E1AF-4762-8F68-B22EDC6FF81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F9B671-62DE-4BA5-828B-231FDAE847CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bancos" sheetId="1" r:id="rId1"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36875E07-AEFE-4371-8D99-4CC952440A1F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
